--- a/IOR lab1/Сравнение алгоритмов.xlsx
+++ b/IOR lab1/Сравнение алгоритмов.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>bad1</t>
   </si>
@@ -63,52 +63,49 @@
     <t>0.000</t>
   </si>
   <si>
-    <t>0.125</t>
-  </si>
-  <si>
-    <t>12.017</t>
-  </si>
-  <si>
-    <t>597.732</t>
-  </si>
-  <si>
-    <t>0.167</t>
-  </si>
-  <si>
-    <t>0.208</t>
-  </si>
-  <si>
-    <t>0.708</t>
-  </si>
-  <si>
-    <t>3.333</t>
-  </si>
-  <si>
-    <t>0.042</t>
-  </si>
-  <si>
-    <t>0.250</t>
-  </si>
-  <si>
-    <t>2.668</t>
-  </si>
-  <si>
-    <t>1.000</t>
-  </si>
-  <si>
-    <t>3.021</t>
-  </si>
-  <si>
-    <t>0.500</t>
-  </si>
-  <si>
-    <t>2.542</t>
-  </si>
-  <si>
-    <t>0.833</t>
-  </si>
-  <si>
-    <t>3.042</t>
+    <t>0.100</t>
+  </si>
+  <si>
+    <t>12.100</t>
+  </si>
+  <si>
+    <t>619.800</t>
+  </si>
+  <si>
+    <t>0.300</t>
+  </si>
+  <si>
+    <t>0.200</t>
+  </si>
+  <si>
+    <t>0.700</t>
+  </si>
+  <si>
+    <t>3.400</t>
+  </si>
+  <si>
+    <t>16.200</t>
+  </si>
+  <si>
+    <t>729.200</t>
+  </si>
+  <si>
+    <t>2.300</t>
+  </si>
+  <si>
+    <t>10.400</t>
+  </si>
+  <si>
+    <t>131.400</t>
+  </si>
+  <si>
+    <t>182.800</t>
+  </si>
+  <si>
+    <t>3.200</t>
+  </si>
+  <si>
+    <t>0.900</t>
   </si>
 </sst>
 </file>
@@ -205,15 +202,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,7 +495,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,42 +511,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -557,28 +554,28 @@
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -586,58 +583,58 @@
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>25</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="G5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>29</v>
+      <c r="I5" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -647,42 +644,42 @@
       <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -690,28 +687,28 @@
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>18</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>910</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>90100</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>4001000</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>633</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="6">
         <v>695</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="6">
         <v>2074</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="6">
         <v>9614</v>
       </c>
     </row>
@@ -719,28 +716,28 @@
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="6">
         <v>10</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>92</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>902</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>4002</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>601</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <v>612</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="6">
         <v>1631</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="6">
         <v>9524</v>
       </c>
     </row>
@@ -748,29 +745,29 @@
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="8">
-        <v>18</v>
-      </c>
-      <c r="C12" s="8">
-        <v>150</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1500</v>
-      </c>
-      <c r="E12" s="8">
-        <v>7500</v>
-      </c>
-      <c r="F12" s="8">
-        <v>648</v>
-      </c>
-      <c r="G12" s="8">
-        <v>778</v>
-      </c>
-      <c r="H12" s="8">
-        <v>2444</v>
-      </c>
-      <c r="I12" s="8">
-        <v>9704</v>
+      <c r="B12" s="6">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6">
+        <v>199</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1999</v>
+      </c>
+      <c r="E12" s="6">
+        <v>9999</v>
+      </c>
+      <c r="F12" s="6">
+        <v>649</v>
+      </c>
+      <c r="G12" s="6">
+        <v>779</v>
+      </c>
+      <c r="H12" s="6">
+        <v>2445</v>
+      </c>
+      <c r="I12" s="6">
+        <v>9705</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
